--- a/sim10/sim10.xlsx
+++ b/sim10/sim10.xlsx
@@ -556,13 +556,13 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>110.5139200940985</v>
+        <v>107.0139200940985</v>
       </c>
       <c r="F5" t="n">
-        <v>-208.4236898279156</v>
+        <v>-201.4236898279156</v>
       </c>
       <c r="G5" t="n">
-        <v>-97.90976973381704</v>
+        <v>-94.40976973381704</v>
       </c>
     </row>
     <row r="6">
@@ -581,13 +581,13 @@
         <v>17.13</v>
       </c>
       <c r="E6" t="n">
-        <v>126.9281415799638</v>
+        <v>123.5050615262677</v>
       </c>
       <c r="F6" t="n">
-        <v>-232.6678176800783</v>
+        <v>-226.119268784857</v>
       </c>
       <c r="G6" t="n">
-        <v>-105.7396761001145</v>
+        <v>-102.6142072585893</v>
       </c>
     </row>
     <row r="7">
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>124.1386256271683</v>
+        <v>120.7907750403077</v>
       </c>
       <c r="F7" t="n">
-        <v>-217.6623686317762</v>
+        <v>-211.5361553984756</v>
       </c>
       <c r="G7" t="n">
-        <v>-93.52374300460792</v>
+        <v>-90.74538035816789</v>
       </c>
     </row>
     <row r="8">
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>121.4104152221736</v>
+        <v>118.1361407745629</v>
       </c>
       <c r="F8" t="n">
-        <v>-203.6246662335535</v>
+        <v>-197.8935509620077</v>
       </c>
       <c r="G8" t="n">
-        <v>-82.21425101137996</v>
+        <v>-79.75741018744476</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         <v>17.13</v>
       </c>
       <c r="E9" t="n">
-        <v>137.5851630451383</v>
+        <v>134.3828477445832</v>
       </c>
       <c r="F9" t="n">
-        <v>-228.1782975862211</v>
+        <v>-222.8167992176686</v>
       </c>
       <c r="G9" t="n">
-        <v>-90.59313454108286</v>
+        <v>-88.43395147308544</v>
       </c>
     </row>
     <row r="10">
@@ -681,13 +681,13 @@
         <v>18.36</v>
       </c>
       <c r="E10" t="n">
-        <v>154.7574363726683</v>
+        <v>151.6254987638179</v>
       </c>
       <c r="F10" t="n">
-        <v>-253.854391224533</v>
+        <v>-248.8386720505165</v>
       </c>
       <c r="G10" t="n">
-        <v>-99.09695485186475</v>
+        <v>-97.21317328669855</v>
       </c>
     </row>
     <row r="11">
@@ -706,13 +706,13 @@
         <v>17.27</v>
       </c>
       <c r="E11" t="n">
-        <v>170.3533124595498</v>
+        <v>167.2902058428995</v>
       </c>
       <c r="F11" t="n">
-        <v>-275.4765561714996</v>
+        <v>-270.7843158492502</v>
       </c>
       <c r="G11" t="n">
-        <v>-105.1232437119498</v>
+        <v>-103.4941100063508</v>
       </c>
     </row>
   </sheetData>
